--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_Deposits.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_Deposits.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="300" windowWidth="19170" windowHeight="12210" tabRatio="795"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="19140" windowHeight="11325" tabRatio="795"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="12" r:id="rId1"/>
@@ -15,13 +15,9 @@
     <sheet name="3M" sheetId="22" r:id="rId6"/>
     <sheet name="6M" sheetId="23" r:id="rId7"/>
     <sheet name="1Y" sheetId="24" r:id="rId8"/>
-    <sheet name="1M (2)" sheetId="28" r:id="rId9"/>
-    <sheet name="3M (2)" sheetId="29" r:id="rId10"/>
-    <sheet name="6M (2)" sheetId="30" r:id="rId11"/>
-    <sheet name="1Y (2)" sheetId="31" r:id="rId12"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="BondBasisDayCounter">'General Settings'!#REF!</definedName>
@@ -52,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="34">
   <si>
     <t>Currency</t>
   </si>
@@ -147,35 +143,27 @@
     <t>11M</t>
   </si>
   <si>
-    <t>Eonia</t>
-  </si>
-  <si>
     <t>STD</t>
   </si>
   <si>
-    <t>-Mx</t>
-  </si>
-  <si>
-    <t>SN</t>
-  </si>
-  <si>
-    <t>Libor</t>
-  </si>
-  <si>
     <t>HKD</t>
+  </si>
+  <si>
+    <t>Hibor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="167" formatCode="#,##0.0;#,##0.0"/>
     <numFmt numFmtId="168" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
     <numFmt numFmtId="169" formatCode="General_)"/>
+    <numFmt numFmtId="170" formatCode="ddd\,\ dd\-mmm\-yyyy\,\ hh:mm:ss"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -507,7 +495,7 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -581,14 +569,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -618,14 +604,10 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="14" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -644,12 +626,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="170" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1055,7 +1032,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1077,12 +1054,12 @@
     </row>
     <row r="2" spans="1:22" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71"/>
     </row>
     <row r="3" spans="1:22" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
@@ -1141,7 +1118,7 @@
       </c>
       <c r="D8" s="29" t="str">
         <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>X:\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
+        <v>\\srv0001\Risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
       </c>
       <c r="E8" s="19"/>
     </row>
@@ -1165,12 +1142,12 @@
     </row>
     <row r="11" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="76"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="71"/>
       <c r="V12" s="11" t="s">
         <v>22</v>
       </c>
@@ -1187,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E14" s="24"/>
       <c r="V14" s="11" t="s">
@@ -1200,7 +1177,7 @@
         <v>26</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E15" s="24"/>
     </row>
@@ -1231,7 +1208,7 @@
       <formula1>"EUR,USD,GBP,JPY,CHF,HKD,CHY,AUD,PLN,HUF"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D15">
-      <formula1>"Libor,ibor"</formula1>
+      <formula1>"Libor,ibor,Hibor"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1240,1129 +1217,10 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="42" t="str">
-        <f>Currency&amp;"_YC"&amp;$D$1&amp;C1&amp;"RH"</f>
-        <v>HKD_YC3M-MxRH</v>
-      </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="16"/>
-    </row>
-    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="37" t="str">
-        <f>$E$1&amp;"_Deposits.xml"</f>
-        <v>HKD_YC3M-MxRH_Deposits.xml</v>
-      </c>
-      <c r="F2" s="38">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F9,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>7</v>
-      </c>
-      <c r="G2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
-      </c>
-      <c r="H2" s="16"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="32" t="str">
-        <f>Currency&amp;B3&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
-        <v>HKDSND_SYNTH3M_Quote</v>
-      </c>
-      <c r="E3" s="15" t="str">
-        <f t="shared" ref="E3:E9" si="0">$E$1&amp;"_"&amp;$B3&amp;"D"</f>
-        <v>HKD_YC3M-MxRH_SND</v>
-      </c>
-      <c r="F3" s="73" t="str">
-        <f>_xll.qlDepositRateHelper2(E3,D3,"1d",2,"target","following",FALSE,"act/360",Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_SND#0001</v>
-      </c>
-      <c r="G3" s="35" t="str">
-        <f>_xll.ohRangeRetrieveError(F3)</f>
-        <v/>
-      </c>
-      <c r="H3" s="16"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="33" t="str">
-        <f t="shared" ref="C4:C9" si="1">PROPER(Currency)&amp;FamilyName&amp;$B4</f>
-        <v>HkdLiborSW</v>
-      </c>
-      <c r="D4" s="32" t="str">
-        <f t="shared" ref="D4:D9" si="2">Currency&amp;B4&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
-        <v>HKDSWD_SYNTH3M_Quote</v>
-      </c>
-      <c r="E4" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC3M-MxRH_SWD</v>
-      </c>
-      <c r="F4" s="7" t="str">
-        <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_SWD#0001</v>
-      </c>
-      <c r="G4" s="35" t="str">
-        <f>_xll.ohRangeRetrieveError(F4)</f>
-        <v/>
-      </c>
-      <c r="H4" s="16"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor2W</v>
-      </c>
-      <c r="D5" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD2WD_SYNTH3M_Quote</v>
-      </c>
-      <c r="E5" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC3M-MxRH_2WD</v>
-      </c>
-      <c r="F5" s="7" t="str">
-        <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_2WD#0001</v>
-      </c>
-      <c r="G5" s="35" t="str">
-        <f>_xll.ohRangeRetrieveError(F5)</f>
-        <v/>
-      </c>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor3W</v>
-      </c>
-      <c r="D6" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD3WD_SYNTH3M_Quote</v>
-      </c>
-      <c r="E6" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC3M-MxRH_3WD</v>
-      </c>
-      <c r="F6" s="7" t="str">
-        <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_3WD#0001</v>
-      </c>
-      <c r="G6" s="35" t="str">
-        <f>_xll.ohRangeRetrieveError(F6)</f>
-        <v/>
-      </c>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor1M</v>
-      </c>
-      <c r="D7" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD1MD_SYNTH3M_Quote</v>
-      </c>
-      <c r="E7" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC3M-MxRH_1MD</v>
-      </c>
-      <c r="F7" s="7" t="str">
-        <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_1MD#0001</v>
-      </c>
-      <c r="G7" s="35" t="str">
-        <f>_xll.ohRangeRetrieveError(F7)</f>
-        <v/>
-      </c>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor2M</v>
-      </c>
-      <c r="D8" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD2MD_SYNTH3M_Quote</v>
-      </c>
-      <c r="E8" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC3M-MxRH_2MD</v>
-      </c>
-      <c r="F8" s="7" t="str">
-        <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_2MD#0001</v>
-      </c>
-      <c r="G8" s="35" t="str">
-        <f>_xll.ohRangeRetrieveError(F8)</f>
-        <v/>
-      </c>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor3M</v>
-      </c>
-      <c r="D9" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD3MD_SYNTH3M_Quote</v>
-      </c>
-      <c r="E9" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC3M-MxRH_3MD</v>
-      </c>
-      <c r="F9" s="7" t="str">
-        <f>_xll.qlDepositRateHelper(E9,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_3MD#0001</v>
-      </c>
-      <c r="G9" s="35" t="str">
-        <f>_xll.ohRangeRetrieveError(F9)</f>
-        <v/>
-      </c>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="42" t="str">
-        <f>Currency&amp;"_YC"&amp;$D$1&amp;C1&amp;"RH"</f>
-        <v>HKD_YC6M-MxRH</v>
-      </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="16"/>
-    </row>
-    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="37" t="str">
-        <f>$E$1&amp;"_Deposits.xml"</f>
-        <v>HKD_YC6M-MxRH_Deposits.xml</v>
-      </c>
-      <c r="F2" s="38">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F12,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>10</v>
-      </c>
-      <c r="G2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
-      </c>
-      <c r="H2" s="16"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="32" t="str">
-        <f>Currency&amp;B3&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
-        <v>HKDSND_SYNTH6M_Quote</v>
-      </c>
-      <c r="E3" s="15" t="str">
-        <f t="shared" ref="E3:E12" si="0">$E$1&amp;"_"&amp;$B3&amp;"D"</f>
-        <v>HKD_YC6M-MxRH_SND</v>
-      </c>
-      <c r="F3" s="73" t="str">
-        <f>_xll.qlDepositRateHelper2(E3,D3,"1d",2,"target","following",FALSE,"act/360",Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_SND#0001</v>
-      </c>
-      <c r="G3" s="35" t="str">
-        <f>_xll.ohRangeRetrieveError(F3)</f>
-        <v/>
-      </c>
-      <c r="H3" s="16"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="33" t="str">
-        <f t="shared" ref="C4:C12" si="1">PROPER(Currency)&amp;FamilyName&amp;$B4</f>
-        <v>HkdLiborSW</v>
-      </c>
-      <c r="D4" s="32" t="str">
-        <f t="shared" ref="D4:D12" si="2">Currency&amp;B4&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
-        <v>HKDSWD_SYNTH6M_Quote</v>
-      </c>
-      <c r="E4" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC6M-MxRH_SWD</v>
-      </c>
-      <c r="F4" s="7" t="str">
-        <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_SWD#0001</v>
-      </c>
-      <c r="G4" s="35" t="str">
-        <f>_xll.ohRangeRetrieveError(F4)</f>
-        <v/>
-      </c>
-      <c r="H4" s="16"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor2W</v>
-      </c>
-      <c r="D5" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD2WD_SYNTH6M_Quote</v>
-      </c>
-      <c r="E5" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC6M-MxRH_2WD</v>
-      </c>
-      <c r="F5" s="7" t="str">
-        <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_2WD#0001</v>
-      </c>
-      <c r="G5" s="35" t="str">
-        <f>_xll.ohRangeRetrieveError(F5)</f>
-        <v/>
-      </c>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor3W</v>
-      </c>
-      <c r="D6" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD3WD_SYNTH6M_Quote</v>
-      </c>
-      <c r="E6" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC6M-MxRH_3WD</v>
-      </c>
-      <c r="F6" s="7" t="str">
-        <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_3WD#0001</v>
-      </c>
-      <c r="G6" s="35" t="str">
-        <f>_xll.ohRangeRetrieveError(F6)</f>
-        <v/>
-      </c>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor1M</v>
-      </c>
-      <c r="D7" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD1MD_SYNTH6M_Quote</v>
-      </c>
-      <c r="E7" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC6M-MxRH_1MD</v>
-      </c>
-      <c r="F7" s="7" t="str">
-        <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_1MD#0001</v>
-      </c>
-      <c r="G7" s="35" t="str">
-        <f>_xll.ohRangeRetrieveError(F7)</f>
-        <v/>
-      </c>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor2M</v>
-      </c>
-      <c r="D8" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD2MD_SYNTH6M_Quote</v>
-      </c>
-      <c r="E8" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC6M-MxRH_2MD</v>
-      </c>
-      <c r="F8" s="7" t="str">
-        <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_2MD#0001</v>
-      </c>
-      <c r="G8" s="35" t="str">
-        <f>_xll.ohRangeRetrieveError(F8)</f>
-        <v/>
-      </c>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor3M</v>
-      </c>
-      <c r="D9" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD3MD_SYNTH6M_Quote</v>
-      </c>
-      <c r="E9" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC6M-MxRH_3MD</v>
-      </c>
-      <c r="F9" s="7" t="str">
-        <f>_xll.qlDepositRateHelper(E9,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_3MD#0001</v>
-      </c>
-      <c r="G9" s="35" t="str">
-        <f>_xll.ohRangeRetrieveError(F9)</f>
-        <v/>
-      </c>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor4M</v>
-      </c>
-      <c r="D10" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD4MD_SYNTH6M_Quote</v>
-      </c>
-      <c r="E10" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC6M-MxRH_4MD</v>
-      </c>
-      <c r="F10" s="7" t="str">
-        <f>_xll.qlDepositRateHelper(E10,D10,C10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_4MD#0001</v>
-      </c>
-      <c r="G10" s="35" t="str">
-        <f>_xll.ohRangeRetrieveError(F10)</f>
-        <v/>
-      </c>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor5M</v>
-      </c>
-      <c r="D11" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD5MD_SYNTH6M_Quote</v>
-      </c>
-      <c r="E11" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC6M-MxRH_5MD</v>
-      </c>
-      <c r="F11" s="7" t="str">
-        <f>_xll.qlDepositRateHelper(E11,D11,C11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_5MD#0001</v>
-      </c>
-      <c r="G11" s="35" t="str">
-        <f>_xll.ohRangeRetrieveError(F11)</f>
-        <v/>
-      </c>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor6M</v>
-      </c>
-      <c r="D12" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD6MD_SYNTH6M_Quote</v>
-      </c>
-      <c r="E12" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC6M-MxRH_6MD</v>
-      </c>
-      <c r="F12" s="7" t="str">
-        <f>_xll.qlDepositRateHelper(E12,D12,C12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_6MD#0001</v>
-      </c>
-      <c r="G12" s="35" t="str">
-        <f>_xll.ohRangeRetrieveError(F12)</f>
-        <v/>
-      </c>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:H19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="42" t="str">
-        <f>Currency&amp;"_YC"&amp;$D$1&amp;C1&amp;"RH"</f>
-        <v>HKD_YC1Y-MxRH</v>
-      </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="16"/>
-    </row>
-    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="37" t="str">
-        <f>$E$1&amp;"_Deposits.xml"</f>
-        <v>HKD_YC1Y-MxRH_Deposits.xml</v>
-      </c>
-      <c r="F2" s="38">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F18,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>16</v>
-      </c>
-      <c r="G2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
-      </c>
-      <c r="H2" s="16"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="32" t="str">
-        <f>Currency&amp;B3&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
-        <v>HKDSND_SYNTH1Y_Quote</v>
-      </c>
-      <c r="E3" s="15" t="str">
-        <f t="shared" ref="E3:E18" si="0">$E$1&amp;"_"&amp;$B3&amp;"D"</f>
-        <v>HKD_YC1Y-MxRH_SND</v>
-      </c>
-      <c r="F3" s="73" t="str">
-        <f>_xll.qlDepositRateHelper2(E3,D3,"1d",2,"target","following",FALSE,"act/360",Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_SND#0001</v>
-      </c>
-      <c r="G3" s="35" t="str">
-        <f>_xll.ohRangeRetrieveError(F3)</f>
-        <v/>
-      </c>
-      <c r="H3" s="16"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="33" t="str">
-        <f t="shared" ref="C4:C18" si="1">PROPER(Currency)&amp;FamilyName&amp;$B4</f>
-        <v>HkdLiborSW</v>
-      </c>
-      <c r="D4" s="32" t="str">
-        <f t="shared" ref="D4:D18" si="2">Currency&amp;B4&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
-        <v>HKDSWD_SYNTH1Y_Quote</v>
-      </c>
-      <c r="E4" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC1Y-MxRH_SWD</v>
-      </c>
-      <c r="F4" s="7" t="str">
-        <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_SWD#0001</v>
-      </c>
-      <c r="G4" s="35" t="str">
-        <f>_xll.ohRangeRetrieveError(F4)</f>
-        <v/>
-      </c>
-      <c r="H4" s="16"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor2W</v>
-      </c>
-      <c r="D5" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD2WD_SYNTH1Y_Quote</v>
-      </c>
-      <c r="E5" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC1Y-MxRH_2WD</v>
-      </c>
-      <c r="F5" s="7" t="str">
-        <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_2WD#0001</v>
-      </c>
-      <c r="G5" s="35" t="str">
-        <f>_xll.ohRangeRetrieveError(F5)</f>
-        <v/>
-      </c>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor3W</v>
-      </c>
-      <c r="D6" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD3WD_SYNTH1Y_Quote</v>
-      </c>
-      <c r="E6" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC1Y-MxRH_3WD</v>
-      </c>
-      <c r="F6" s="7" t="str">
-        <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_3WD#0001</v>
-      </c>
-      <c r="G6" s="35" t="str">
-        <f>_xll.ohRangeRetrieveError(F6)</f>
-        <v/>
-      </c>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor1M</v>
-      </c>
-      <c r="D7" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD1MD_SYNTH1Y_Quote</v>
-      </c>
-      <c r="E7" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC1Y-MxRH_1MD</v>
-      </c>
-      <c r="F7" s="7" t="str">
-        <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_1MD#0001</v>
-      </c>
-      <c r="G7" s="35" t="str">
-        <f>_xll.ohRangeRetrieveError(F7)</f>
-        <v/>
-      </c>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor2M</v>
-      </c>
-      <c r="D8" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD2MD_SYNTH1Y_Quote</v>
-      </c>
-      <c r="E8" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC1Y-MxRH_2MD</v>
-      </c>
-      <c r="F8" s="7" t="str">
-        <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_2MD#0001</v>
-      </c>
-      <c r="G8" s="35" t="str">
-        <f>_xll.ohRangeRetrieveError(F8)</f>
-        <v/>
-      </c>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor3M</v>
-      </c>
-      <c r="D9" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD3MD_SYNTH1Y_Quote</v>
-      </c>
-      <c r="E9" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC1Y-MxRH_3MD</v>
-      </c>
-      <c r="F9" s="7" t="str">
-        <f>_xll.qlDepositRateHelper(E9,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_3MD#0001</v>
-      </c>
-      <c r="G9" s="35" t="str">
-        <f>_xll.ohRangeRetrieveError(F9)</f>
-        <v/>
-      </c>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor4M</v>
-      </c>
-      <c r="D10" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD4MD_SYNTH1Y_Quote</v>
-      </c>
-      <c r="E10" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC1Y-MxRH_4MD</v>
-      </c>
-      <c r="F10" s="7" t="str">
-        <f>_xll.qlDepositRateHelper(E10,D10,C10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_4MD#0001</v>
-      </c>
-      <c r="G10" s="35" t="str">
-        <f>_xll.ohRangeRetrieveError(F10)</f>
-        <v/>
-      </c>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor5M</v>
-      </c>
-      <c r="D11" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD5MD_SYNTH1Y_Quote</v>
-      </c>
-      <c r="E11" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC1Y-MxRH_5MD</v>
-      </c>
-      <c r="F11" s="7" t="str">
-        <f>_xll.qlDepositRateHelper(E11,D11,C11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_5MD#0001</v>
-      </c>
-      <c r="G11" s="35" t="str">
-        <f>_xll.ohRangeRetrieveError(F11)</f>
-        <v/>
-      </c>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor6M</v>
-      </c>
-      <c r="D12" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD6MD_SYNTH1Y_Quote</v>
-      </c>
-      <c r="E12" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC1Y-MxRH_6MD</v>
-      </c>
-      <c r="F12" s="7" t="str">
-        <f>_xll.qlDepositRateHelper(E12,D12,C12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_6MD#0001</v>
-      </c>
-      <c r="G12" s="35" t="str">
-        <f>_xll.ohRangeRetrieveError(F12)</f>
-        <v/>
-      </c>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor7M</v>
-      </c>
-      <c r="D13" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD7MD_SYNTH1Y_Quote</v>
-      </c>
-      <c r="E13" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC1Y-MxRH_7MD</v>
-      </c>
-      <c r="F13" s="7" t="str">
-        <f>_xll.qlDepositRateHelper(E13,D13,C13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_7MD#0001</v>
-      </c>
-      <c r="G13" s="35" t="str">
-        <f>_xll.ohRangeRetrieveError(F13)</f>
-        <v/>
-      </c>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor8M</v>
-      </c>
-      <c r="D14" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD8MD_SYNTH1Y_Quote</v>
-      </c>
-      <c r="E14" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC1Y-MxRH_8MD</v>
-      </c>
-      <c r="F14" s="7" t="str">
-        <f>_xll.qlDepositRateHelper(E14,D14,C14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_8MD#0001</v>
-      </c>
-      <c r="G14" s="35" t="str">
-        <f>_xll.ohRangeRetrieveError(F14)</f>
-        <v/>
-      </c>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor9M</v>
-      </c>
-      <c r="D15" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD9MD_SYNTH1Y_Quote</v>
-      </c>
-      <c r="E15" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC1Y-MxRH_9MD</v>
-      </c>
-      <c r="F15" s="7" t="str">
-        <f>_xll.qlDepositRateHelper(E15,D15,C15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_9MD#0001</v>
-      </c>
-      <c r="G15" s="35" t="str">
-        <f>_xll.ohRangeRetrieveError(F15)</f>
-        <v/>
-      </c>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor10M</v>
-      </c>
-      <c r="D16" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD10MD_SYNTH1Y_Quote</v>
-      </c>
-      <c r="E16" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC1Y-MxRH_10MD</v>
-      </c>
-      <c r="F16" s="7" t="str">
-        <f>_xll.qlDepositRateHelper(E16,D16,C16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_10MD#0001</v>
-      </c>
-      <c r="G16" s="35" t="str">
-        <f>_xll.ohRangeRetrieveError(F16)</f>
-        <v/>
-      </c>
-      <c r="H16" s="16"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor11M</v>
-      </c>
-      <c r="D17" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD11MD_SYNTH1Y_Quote</v>
-      </c>
-      <c r="E17" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC1Y-MxRH_11MD</v>
-      </c>
-      <c r="F17" s="7" t="str">
-        <f>_xll.qlDepositRateHelper(E17,D17,C17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_11MD#0001</v>
-      </c>
-      <c r="G17" s="35" t="str">
-        <f>_xll.ohRangeRetrieveError(F17)</f>
-        <v/>
-      </c>
-      <c r="H17" s="16"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor1Y</v>
-      </c>
-      <c r="D18" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD1YD_SYNTH1Y_Quote</v>
-      </c>
-      <c r="E18" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC1Y-MxRH_1YD</v>
-      </c>
-      <c r="F18" s="7" t="str">
-        <f>_xll.qlDepositRateHelper(E18,D18,C18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_1YD#0001</v>
-      </c>
-      <c r="G18" s="35" t="str">
-        <f>_xll.ohRangeRetrieveError(F18)</f>
-        <v/>
-      </c>
-      <c r="H18" s="16"/>
-    </row>
-    <row r="19" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -2370,495 +1228,499 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="53" customWidth="1"/>
-    <col min="2" max="2" width="4" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" style="53" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" style="53" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" style="53" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" style="53" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="53" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="53"/>
+    <col min="1" max="1" width="3" style="51" customWidth="1"/>
+    <col min="2" max="2" width="4" style="51" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="51" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" style="51" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" style="51" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="51" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="51" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="51" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="47"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="50" t="str">
+      <c r="A1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="48" t="str">
         <f>Currency&amp;"_YC"&amp;$D$1&amp;"RH"</f>
         <v>HKD_YCSTDRH</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="52"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="56" t="str">
+      <c r="E2" s="54" t="str">
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>HKD_YCSTDRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="57" t="e">
+      <c r="F2" s="55">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F18,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="58" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
-      </c>
-      <c r="H2" s="52"/>
+        <v>16</v>
+      </c>
+      <c r="G2" s="56" t="str">
+        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <v/>
+      </c>
+      <c r="H2" s="50"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="59" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="70" t="str">
-        <f>Currency&amp;$B3&amp;"D"&amp;QuoteSuffix</f>
-        <v>HKDOND_Quote</v>
-      </c>
-      <c r="E3" s="61" t="str">
-        <f>$E$1&amp;"_"&amp;$B3&amp;"D"</f>
+      <c r="C3" s="61" t="str">
+        <f t="shared" ref="C3:C18" si="0">PROPER(Currency)&amp;FamilyName&amp;$B3</f>
+        <v>HkdHiborON</v>
+      </c>
+      <c r="D3" s="66" t="str">
+        <f t="shared" ref="D3:D18" si="1">PROPER(Currency)&amp;FamilyName&amp;$B3&amp;"LastFixing"&amp;QuoteSuffix</f>
+        <v>HkdHiborONLastFixing_Quote</v>
+      </c>
+      <c r="E3" s="58" t="str">
+        <f t="shared" ref="E3:E18" si="2">$E$1&amp;"_"&amp;$B3&amp;"D"</f>
         <v>HKD_YCSTDRH_OND</v>
       </c>
-      <c r="F3" s="62" t="e">
+      <c r="F3" s="59" t="str">
         <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G3" s="63" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(F3)</f>
-        <v>qlDepositRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'Eonia'</v>
-      </c>
-      <c r="H3" s="52"/>
+        <v>HKD_YCSTDRH_OND#0001</v>
+      </c>
+      <c r="G3" s="62" t="str">
+        <f>_xll.ohRangeRetrieveError(F3)</f>
+        <v/>
+      </c>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="52"/>
+      <c r="B4" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="65" t="str">
-        <f t="shared" ref="C4:C18" si="0">PROPER(Currency)&amp;FamilyName&amp;$B4</f>
-        <v>HkdLiborSW</v>
-      </c>
-      <c r="D4" s="70" t="str">
-        <f t="shared" ref="D4:D18" si="1">PROPER(Currency)&amp;FamilyName&amp;$B4&amp;"LastFixing"&amp;QuoteSuffix</f>
-        <v>HkdLiborSWLastFixing_Quote</v>
-      </c>
-      <c r="E4" s="61" t="str">
-        <f t="shared" ref="E4:E18" si="2">$E$1&amp;"_"&amp;$B4&amp;"D"</f>
+      <c r="C4" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>HkdHiborSW</v>
+      </c>
+      <c r="D4" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>HkdHiborSWLastFixing_Quote</v>
+      </c>
+      <c r="E4" s="58" t="str">
+        <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_SWD</v>
       </c>
-      <c r="F4" s="62" t="e">
+      <c r="F4" s="59" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G4" s="66" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(F4)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSWLastFixing_Quote'</v>
-      </c>
-      <c r="H4" s="52"/>
+        <v>HKD_YCSTDRH_SWD#0001</v>
+      </c>
+      <c r="G4" s="62" t="str">
+        <f>_xll.ohRangeRetrieveError(F4)</f>
+        <v/>
+      </c>
+      <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="52"/>
+      <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="65" t="str">
+      <c r="C5" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor2W</v>
-      </c>
-      <c r="D5" s="70" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor2WLastFixing_Quote</v>
-      </c>
-      <c r="E5" s="61" t="str">
+        <v>HkdHibor2W</v>
+      </c>
+      <c r="D5" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>HkdHibor2WLastFixing_Quote</v>
+      </c>
+      <c r="E5" s="58" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_2WD</v>
       </c>
-      <c r="F5" s="62" t="e">
+      <c r="F5" s="59" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G5" s="66" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(F5)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLibor2WLastFixing_Quote'</v>
-      </c>
-      <c r="H5" s="52"/>
+        <v>HKD_YCSTDRH_2WD#0001</v>
+      </c>
+      <c r="G5" s="62" t="str">
+        <f>_xll.ohRangeRetrieveError(F5)</f>
+        <v/>
+      </c>
+      <c r="H5" s="50"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
-      <c r="B6" s="64" t="s">
+      <c r="A6" s="52"/>
+      <c r="B6" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="65" t="str">
+      <c r="C6" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor3W</v>
-      </c>
-      <c r="D6" s="70" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor3WLastFixing_Quote</v>
-      </c>
-      <c r="E6" s="61" t="str">
+        <v>HkdHibor3W</v>
+      </c>
+      <c r="D6" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>HkdHibor3WLastFixing_Quote</v>
+      </c>
+      <c r="E6" s="58" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_3WD</v>
       </c>
-      <c r="F6" s="62" t="e">
+      <c r="F6" s="59" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G6" s="66" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(F6)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLibor3WLastFixing_Quote'</v>
-      </c>
-      <c r="H6" s="52"/>
+        <v>HKD_YCSTDRH_3WD#0001</v>
+      </c>
+      <c r="G6" s="62" t="str">
+        <f>_xll.ohRangeRetrieveError(F6)</f>
+        <v/>
+      </c>
+      <c r="H6" s="50"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="64" t="s">
+      <c r="A7" s="52"/>
+      <c r="B7" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="65" t="str">
+      <c r="C7" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1M</v>
-      </c>
-      <c r="D7" s="70" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor1MLastFixing_Quote</v>
-      </c>
-      <c r="E7" s="61" t="str">
+        <v>HkdHibor1M</v>
+      </c>
+      <c r="D7" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>HkdHibor1MLastFixing_Quote</v>
+      </c>
+      <c r="E7" s="58" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_1MD</v>
       </c>
-      <c r="F7" s="62" t="e">
+      <c r="F7" s="59" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G7" s="66" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(F7)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLibor1MLastFixing_Quote'</v>
-      </c>
-      <c r="H7" s="52"/>
+        <v>HKD_YCSTDRH_1MD#0001</v>
+      </c>
+      <c r="G7" s="62" t="str">
+        <f>_xll.ohRangeRetrieveError(F7)</f>
+        <v/>
+      </c>
+      <c r="H7" s="50"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
-      <c r="B8" s="64" t="s">
+      <c r="A8" s="52"/>
+      <c r="B8" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="65" t="str">
+      <c r="C8" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor2M</v>
-      </c>
-      <c r="D8" s="70" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor2MLastFixing_Quote</v>
-      </c>
-      <c r="E8" s="61" t="str">
+        <v>HkdHibor2M</v>
+      </c>
+      <c r="D8" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>HkdHibor2MLastFixing_Quote</v>
+      </c>
+      <c r="E8" s="58" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_2MD</v>
       </c>
-      <c r="F8" s="62" t="e">
+      <c r="F8" s="59" t="str">
         <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G8" s="66" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(F8)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLibor2MLastFixing_Quote'</v>
-      </c>
-      <c r="H8" s="52"/>
+        <v>HKD_YCSTDRH_2MD#0001</v>
+      </c>
+      <c r="G8" s="62" t="str">
+        <f>_xll.ohRangeRetrieveError(F8)</f>
+        <v/>
+      </c>
+      <c r="H8" s="50"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
-      <c r="B9" s="64" t="s">
+      <c r="A9" s="52"/>
+      <c r="B9" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="65" t="str">
+      <c r="C9" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor3M</v>
-      </c>
-      <c r="D9" s="70" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor3MLastFixing_Quote</v>
-      </c>
-      <c r="E9" s="61" t="str">
+        <v>HkdHibor3M</v>
+      </c>
+      <c r="D9" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>HkdHibor3MLastFixing_Quote</v>
+      </c>
+      <c r="E9" s="58" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_3MD</v>
       </c>
-      <c r="F9" s="62" t="e">
+      <c r="F9" s="59" t="str">
         <f>_xll.qlDepositRateHelper(E9,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G9" s="66" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(F9)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLibor3MLastFixing_Quote'</v>
-      </c>
-      <c r="H9" s="52"/>
+        <v>HKD_YCSTDRH_3MD#0001</v>
+      </c>
+      <c r="G9" s="62" t="str">
+        <f>_xll.ohRangeRetrieveError(F9)</f>
+        <v/>
+      </c>
+      <c r="H9" s="50"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="64" t="s">
+      <c r="A10" s="52"/>
+      <c r="B10" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="65" t="str">
+      <c r="C10" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor4M</v>
-      </c>
-      <c r="D10" s="70" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor4MLastFixing_Quote</v>
-      </c>
-      <c r="E10" s="61" t="str">
+        <v>HkdHibor4M</v>
+      </c>
+      <c r="D10" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>HkdHibor4MLastFixing_Quote</v>
+      </c>
+      <c r="E10" s="58" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_4MD</v>
       </c>
-      <c r="F10" s="62" t="e">
+      <c r="F10" s="59" t="str">
         <f>_xll.qlDepositRateHelper(E10,D10,C10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G10" s="66" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(F10)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLibor4MLastFixing_Quote'</v>
-      </c>
-      <c r="H10" s="52"/>
+        <v>HKD_YCSTDRH_4MD#0001</v>
+      </c>
+      <c r="G10" s="62" t="str">
+        <f>_xll.ohRangeRetrieveError(F10)</f>
+        <v/>
+      </c>
+      <c r="H10" s="50"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
-      <c r="B11" s="64" t="s">
+      <c r="A11" s="52"/>
+      <c r="B11" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="65" t="str">
+      <c r="C11" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor5M</v>
-      </c>
-      <c r="D11" s="70" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor5MLastFixing_Quote</v>
-      </c>
-      <c r="E11" s="61" t="str">
+        <v>HkdHibor5M</v>
+      </c>
+      <c r="D11" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>HkdHibor5MLastFixing_Quote</v>
+      </c>
+      <c r="E11" s="58" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_5MD</v>
       </c>
-      <c r="F11" s="62" t="e">
+      <c r="F11" s="59" t="str">
         <f>_xll.qlDepositRateHelper(E11,D11,C11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G11" s="66" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(F11)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLibor5MLastFixing_Quote'</v>
-      </c>
-      <c r="H11" s="52"/>
+        <v>HKD_YCSTDRH_5MD#0001</v>
+      </c>
+      <c r="G11" s="62" t="str">
+        <f>_xll.ohRangeRetrieveError(F11)</f>
+        <v/>
+      </c>
+      <c r="H11" s="50"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
-      <c r="B12" s="64" t="s">
+      <c r="A12" s="52"/>
+      <c r="B12" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="65" t="str">
+      <c r="C12" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor6M</v>
-      </c>
-      <c r="D12" s="70" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor6MLastFixing_Quote</v>
-      </c>
-      <c r="E12" s="61" t="str">
+        <v>HkdHibor6M</v>
+      </c>
+      <c r="D12" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>HkdHibor6MLastFixing_Quote</v>
+      </c>
+      <c r="E12" s="58" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_6MD</v>
       </c>
-      <c r="F12" s="62" t="e">
+      <c r="F12" s="59" t="str">
         <f>_xll.qlDepositRateHelper(E12,D12,C12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G12" s="66" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(F12)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLibor6MLastFixing_Quote'</v>
-      </c>
-      <c r="H12" s="52"/>
+        <v>HKD_YCSTDRH_6MD#0001</v>
+      </c>
+      <c r="G12" s="62" t="str">
+        <f>_xll.ohRangeRetrieveError(F12)</f>
+        <v/>
+      </c>
+      <c r="H12" s="50"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="64" t="s">
+      <c r="A13" s="52"/>
+      <c r="B13" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="65" t="str">
+      <c r="C13" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor7M</v>
-      </c>
-      <c r="D13" s="70" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor7MLastFixing_Quote</v>
-      </c>
-      <c r="E13" s="61" t="str">
+        <v>HkdHibor7M</v>
+      </c>
+      <c r="D13" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>HkdHibor7MLastFixing_Quote</v>
+      </c>
+      <c r="E13" s="58" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_7MD</v>
       </c>
-      <c r="F13" s="62" t="e">
+      <c r="F13" s="59" t="str">
         <f>_xll.qlDepositRateHelper(E13,D13,C13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G13" s="66" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(F13)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLibor7MLastFixing_Quote'</v>
-      </c>
-      <c r="H13" s="52"/>
+        <v>HKD_YCSTDRH_7MD#0001</v>
+      </c>
+      <c r="G13" s="62" t="str">
+        <f>_xll.ohRangeRetrieveError(F13)</f>
+        <v/>
+      </c>
+      <c r="H13" s="50"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="64" t="s">
+      <c r="A14" s="52"/>
+      <c r="B14" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="65" t="str">
+      <c r="C14" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor8M</v>
-      </c>
-      <c r="D14" s="70" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor8MLastFixing_Quote</v>
-      </c>
-      <c r="E14" s="61" t="str">
+        <v>HkdHibor8M</v>
+      </c>
+      <c r="D14" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>HkdHibor8MLastFixing_Quote</v>
+      </c>
+      <c r="E14" s="58" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_8MD</v>
       </c>
-      <c r="F14" s="62" t="e">
+      <c r="F14" s="59" t="str">
         <f>_xll.qlDepositRateHelper(E14,D14,C14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G14" s="66" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(F14)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLibor8MLastFixing_Quote'</v>
-      </c>
-      <c r="H14" s="52"/>
+        <v>HKD_YCSTDRH_8MD#0001</v>
+      </c>
+      <c r="G14" s="62" t="str">
+        <f>_xll.ohRangeRetrieveError(F14)</f>
+        <v/>
+      </c>
+      <c r="H14" s="50"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
-      <c r="B15" s="64" t="s">
+      <c r="A15" s="52"/>
+      <c r="B15" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="65" t="str">
+      <c r="C15" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor9M</v>
-      </c>
-      <c r="D15" s="70" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor9MLastFixing_Quote</v>
-      </c>
-      <c r="E15" s="61" t="str">
+        <v>HkdHibor9M</v>
+      </c>
+      <c r="D15" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>HkdHibor9MLastFixing_Quote</v>
+      </c>
+      <c r="E15" s="58" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_9MD</v>
       </c>
-      <c r="F15" s="62" t="e">
+      <c r="F15" s="59" t="str">
         <f>_xll.qlDepositRateHelper(E15,D15,C15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G15" s="66" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(F15)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLibor9MLastFixing_Quote'</v>
-      </c>
-      <c r="H15" s="52"/>
+        <v>HKD_YCSTDRH_9MD#0001</v>
+      </c>
+      <c r="G15" s="62" t="str">
+        <f>_xll.ohRangeRetrieveError(F15)</f>
+        <v/>
+      </c>
+      <c r="H15" s="50"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="64" t="s">
+      <c r="A16" s="52"/>
+      <c r="B16" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="65" t="str">
+      <c r="C16" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor10M</v>
-      </c>
-      <c r="D16" s="70" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor10MLastFixing_Quote</v>
-      </c>
-      <c r="E16" s="61" t="str">
+        <v>HkdHibor10M</v>
+      </c>
+      <c r="D16" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>HkdHibor10MLastFixing_Quote</v>
+      </c>
+      <c r="E16" s="58" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_10MD</v>
       </c>
-      <c r="F16" s="62" t="e">
+      <c r="F16" s="59" t="str">
         <f>_xll.qlDepositRateHelper(E16,D16,C16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G16" s="66" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(F16)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLibor10MLastFixing_Quote'</v>
-      </c>
-      <c r="H16" s="52"/>
+        <v>HKD_YCSTDRH_10MD#0001</v>
+      </c>
+      <c r="G16" s="62" t="str">
+        <f>_xll.ohRangeRetrieveError(F16)</f>
+        <v/>
+      </c>
+      <c r="H16" s="50"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="64" t="s">
+      <c r="A17" s="52"/>
+      <c r="B17" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="65" t="str">
+      <c r="C17" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor11M</v>
-      </c>
-      <c r="D17" s="70" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor11MLastFixing_Quote</v>
-      </c>
-      <c r="E17" s="61" t="str">
+        <v>HkdHibor11M</v>
+      </c>
+      <c r="D17" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>HkdHibor11MLastFixing_Quote</v>
+      </c>
+      <c r="E17" s="58" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_11MD</v>
       </c>
-      <c r="F17" s="62" t="e">
+      <c r="F17" s="59" t="str">
         <f>_xll.qlDepositRateHelper(E17,D17,C17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G17" s="66" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(F17)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLibor11MLastFixing_Quote'</v>
-      </c>
-      <c r="H17" s="52"/>
+        <v>HKD_YCSTDRH_11MD#0001</v>
+      </c>
+      <c r="G17" s="62" t="str">
+        <f>_xll.ohRangeRetrieveError(F17)</f>
+        <v/>
+      </c>
+      <c r="H17" s="50"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="64" t="s">
+      <c r="A18" s="52"/>
+      <c r="B18" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="65" t="str">
+      <c r="C18" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
-      </c>
-      <c r="D18" s="70" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor1YLastFixing_Quote</v>
-      </c>
-      <c r="E18" s="61" t="str">
+        <v>HkdHibor1Y</v>
+      </c>
+      <c r="D18" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>HkdHibor1YLastFixing_Quote</v>
+      </c>
+      <c r="E18" s="58" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_1YD</v>
       </c>
-      <c r="F18" s="62" t="e">
+      <c r="F18" s="59" t="str">
         <f>_xll.qlDepositRateHelper(E18,D18,C18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G18" s="66" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(F18)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLibor1YLastFixing_Quote'</v>
-      </c>
-      <c r="H18" s="52"/>
+        <v>HKD_YCSTDRH_1YD#0001</v>
+      </c>
+      <c r="G18" s="62" t="str">
+        <f>_xll.ohRangeRetrieveError(F18)</f>
+        <v/>
+      </c>
+      <c r="H18" s="50"/>
     </row>
     <row r="19" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="67"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="69"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="65"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D26" s="68"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2881,8 +1743,8 @@
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="54" customWidth="1"/>
@@ -2915,13 +1777,13 @@
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>HKD_YCRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="38" t="e">
+      <c r="F2" s="38">
         <f>IF(Serialize,_xll.ohObjectSave(F3,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
+        <v>1</v>
       </c>
       <c r="G2" s="39" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : input value has type=error</v>
+        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <v/>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -2930,24 +1792,25 @@
       <c r="B3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="44" t="str">
-        <f>Currency&amp;$B3&amp;"D"&amp;QuoteSuffix</f>
-        <v>HKDOND_Quote</v>
-      </c>
-      <c r="E3" s="44" t="str">
+      <c r="C3" s="61" t="str">
+        <f t="shared" ref="C3" si="0">PROPER(Currency)&amp;FamilyName&amp;$B3</f>
+        <v>HkdHiborON</v>
+      </c>
+      <c r="D3" s="66" t="str">
+        <f t="shared" ref="D3" si="1">PROPER(Currency)&amp;FamilyName&amp;$B3&amp;"LastFixing"&amp;QuoteSuffix</f>
+        <v>HkdHiborONLastFixing_Quote</v>
+      </c>
+      <c r="E3" s="43" t="str">
         <f>$E$1&amp;"_"&amp;$B3&amp;"D"</f>
         <v>HKD_YCRH_OND</v>
       </c>
-      <c r="F3" s="45" t="e">
+      <c r="F3" s="44" t="str">
         <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>HKD_YCRH_OND#0001</v>
       </c>
       <c r="G3" s="35" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(F3)</f>
-        <v>qlDepositRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'Eonia'</v>
+        <f>_xll.ohRangeRetrieveError(F3)</f>
+        <v/>
       </c>
       <c r="H3" s="16"/>
     </row>
@@ -2982,8 +1845,8 @@
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="54" customWidth="1"/>
@@ -3018,13 +1881,13 @@
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>HKD_YCONRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="38" t="e">
+      <c r="F2" s="38">
         <f>IF(Serialize,_xll.ohObjectSave(F3,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
+        <v>1</v>
       </c>
       <c r="G2" s="39" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : input value has type=error</v>
+        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <v/>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -3033,24 +1896,25 @@
       <c r="B3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="44" t="str">
-        <f>Currency&amp;$B3&amp;"D"&amp;QuoteSuffix</f>
-        <v>HKDOND_Quote</v>
-      </c>
-      <c r="E3" s="44" t="str">
+      <c r="C3" s="61" t="str">
+        <f t="shared" ref="C3" si="0">PROPER(Currency)&amp;FamilyName&amp;$B3</f>
+        <v>HkdHiborON</v>
+      </c>
+      <c r="D3" s="66" t="str">
+        <f t="shared" ref="D3" si="1">PROPER(Currency)&amp;FamilyName&amp;$B3&amp;"LastFixing"&amp;QuoteSuffix</f>
+        <v>HkdHiborONLastFixing_Quote</v>
+      </c>
+      <c r="E3" s="43" t="str">
         <f>$E$1&amp;"_"&amp;$B3&amp;"D"</f>
         <v>HKD_YCONRH_OND</v>
       </c>
-      <c r="F3" s="45" t="e">
+      <c r="F3" s="44" t="str">
         <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>HKD_YCONRH_OND#0001</v>
       </c>
       <c r="G3" s="35" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(F3)</f>
-        <v>qlDepositRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'Eonia'</v>
+        <f>_xll.ohRangeRetrieveError(F3)</f>
+        <v/>
       </c>
       <c r="H3" s="16"/>
     </row>
@@ -3085,7 +1949,7 @@
   <cols>
     <col min="1" max="1" width="3" style="40" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="40" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" style="40" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" style="40" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" style="40" bestFit="1" customWidth="1"/>
@@ -3132,21 +1996,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="33"/>
+      <c r="B3" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="61" t="str">
+        <f t="shared" ref="C3" si="0">PROPER(Currency)&amp;FamilyName&amp;$B3</f>
+        <v>HkdHiborON</v>
+      </c>
       <c r="D3" s="32" t="str">
         <f>Currency&amp;B3&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
-        <v>HKDSND_SYNTH1M_Quote</v>
+        <v>HKDOND_SYNTH1M_Quote</v>
       </c>
       <c r="E3" s="15" t="str">
         <f>$E$1&amp;"_"&amp;$B3&amp;"D"</f>
-        <v>HKD_YC1MRH_SND</v>
-      </c>
-      <c r="F3" s="73" t="str">
-        <f>_xll.qlDepositRateHelper2(E3,D3,"1d",2,"target","following",FALSE,"act/360",Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_SND#0001</v>
+        <v>HKD_YC1MRH_OND</v>
+      </c>
+      <c r="F3" s="7" t="str">
+        <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>HKD_YC1MRH_OND#0001</v>
       </c>
       <c r="G3" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -3161,7 +2028,7 @@
       </c>
       <c r="C4" s="33" t="str">
         <f>PROPER(Currency)&amp;FamilyName&amp;$B4</f>
-        <v>HkdLiborSW</v>
+        <v>HkdHiborSW</v>
       </c>
       <c r="D4" s="32" t="str">
         <f>Currency&amp;B4&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
@@ -3188,7 +2055,7 @@
       </c>
       <c r="C5" s="33" t="str">
         <f>PROPER(Currency)&amp;FamilyName&amp;$B5</f>
-        <v>HkdLibor2W</v>
+        <v>HkdHibor2W</v>
       </c>
       <c r="D5" s="32" t="str">
         <f>Currency&amp;B5&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
@@ -3215,7 +2082,7 @@
       </c>
       <c r="C6" s="33" t="str">
         <f>PROPER(Currency)&amp;FamilyName&amp;$B6</f>
-        <v>HkdLibor3W</v>
+        <v>HkdHibor3W</v>
       </c>
       <c r="D6" s="32" t="str">
         <f>Currency&amp;B6&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
@@ -3242,7 +2109,7 @@
       </c>
       <c r="C7" s="33" t="str">
         <f>PROPER(Currency)&amp;FamilyName&amp;$B7</f>
-        <v>HkdLibor1M</v>
+        <v>HkdHibor1M</v>
       </c>
       <c r="D7" s="32" t="str">
         <f>Currency&amp;B7&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
@@ -3341,21 +2208,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="72"/>
+      <c r="B3" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="61" t="str">
+        <f t="shared" ref="C3" si="0">PROPER(Currency)&amp;FamilyName&amp;$B3</f>
+        <v>HkdHiborON</v>
+      </c>
       <c r="D3" s="32" t="str">
         <f>Currency&amp;B3&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
-        <v>HKDSND_SYNTH3M_Quote</v>
+        <v>HKDOND_SYNTH3M_Quote</v>
       </c>
       <c r="E3" s="15" t="str">
-        <f t="shared" ref="E3:E9" si="0">$E$1&amp;"_"&amp;$B3&amp;"D"</f>
-        <v>HKD_YC3MRH_SND</v>
-      </c>
-      <c r="F3" s="73" t="str">
-        <f>_xll.qlDepositRateHelper2(E3,D3,"1d",2,"target","following",FALSE,"act/360",Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_SND#0001</v>
+        <f t="shared" ref="E3:E9" si="1">$E$1&amp;"_"&amp;$B3&amp;"D"</f>
+        <v>HKD_YC3MRH_OND</v>
+      </c>
+      <c r="F3" s="7" t="str">
+        <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>HKD_YC3MRH_OND#0001</v>
       </c>
       <c r="G3" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -3369,15 +2239,15 @@
         <v>25</v>
       </c>
       <c r="C4" s="33" t="str">
-        <f t="shared" ref="C4:C9" si="1">PROPER(Currency)&amp;FamilyName&amp;$B4</f>
-        <v>HkdLiborSW</v>
+        <f t="shared" ref="C4:C9" si="2">PROPER(Currency)&amp;FamilyName&amp;$B4</f>
+        <v>HkdHiborSW</v>
       </c>
       <c r="D4" s="32" t="str">
-        <f t="shared" ref="D4:D9" si="2">Currency&amp;B4&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
+        <f t="shared" ref="D4:D9" si="3">Currency&amp;B4&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
         <v>HKDSWD_SYNTH3M_Quote</v>
       </c>
       <c r="E4" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HKD_YC3MRH_SWD</v>
       </c>
       <c r="F4" s="7" t="str">
@@ -3396,15 +2266,15 @@
         <v>1</v>
       </c>
       <c r="C5" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor2W</v>
+        <f t="shared" si="2"/>
+        <v>HkdHibor2W</v>
       </c>
       <c r="D5" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HKD2WD_SYNTH3M_Quote</v>
       </c>
       <c r="E5" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HKD_YC3MRH_2WD</v>
       </c>
       <c r="F5" s="7" t="str">
@@ -3423,15 +2293,15 @@
         <v>2</v>
       </c>
       <c r="C6" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor3W</v>
+        <f t="shared" si="2"/>
+        <v>HkdHibor3W</v>
       </c>
       <c r="D6" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HKD3WD_SYNTH3M_Quote</v>
       </c>
       <c r="E6" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HKD_YC3MRH_3WD</v>
       </c>
       <c r="F6" s="7" t="str">
@@ -3450,15 +2320,15 @@
         <v>3</v>
       </c>
       <c r="C7" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor1M</v>
+        <f t="shared" si="2"/>
+        <v>HkdHibor1M</v>
       </c>
       <c r="D7" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HKD1MD_SYNTH3M_Quote</v>
       </c>
       <c r="E7" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HKD_YC3MRH_1MD</v>
       </c>
       <c r="F7" s="7" t="str">
@@ -3477,15 +2347,15 @@
         <v>4</v>
       </c>
       <c r="C8" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor2M</v>
+        <f t="shared" si="2"/>
+        <v>HkdHibor2M</v>
       </c>
       <c r="D8" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HKD2MD_SYNTH3M_Quote</v>
       </c>
       <c r="E8" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HKD_YC3MRH_2MD</v>
       </c>
       <c r="F8" s="7" t="str">
@@ -3504,15 +2374,15 @@
         <v>5</v>
       </c>
       <c r="C9" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor3M</v>
+        <f t="shared" si="2"/>
+        <v>HkdHibor3M</v>
       </c>
       <c r="D9" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HKD3MD_SYNTH3M_Quote</v>
       </c>
       <c r="E9" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HKD_YC3MRH_3MD</v>
       </c>
       <c r="F9" s="7" t="str">
@@ -3604,21 +2474,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="72"/>
+      <c r="B3" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="61" t="str">
+        <f t="shared" ref="C3" si="0">PROPER(Currency)&amp;FamilyName&amp;$B3</f>
+        <v>HkdHiborON</v>
+      </c>
       <c r="D3" s="32" t="str">
         <f>Currency&amp;B3&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
-        <v>HKDSND_SYNTH6M_Quote</v>
+        <v>HKDOND_SYNTH6M_Quote</v>
       </c>
       <c r="E3" s="15" t="str">
-        <f t="shared" ref="E3:E12" si="0">$E$1&amp;"_"&amp;$B3&amp;"D"</f>
-        <v>HKD_YC6MRH_SND</v>
-      </c>
-      <c r="F3" s="73" t="str">
-        <f>_xll.qlDepositRateHelper2(E3,D3,"1d",2,"target","following",FALSE,"act/360",Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SND#0001</v>
+        <f t="shared" ref="E3:E12" si="1">$E$1&amp;"_"&amp;$B3&amp;"D"</f>
+        <v>HKD_YC6MRH_OND</v>
+      </c>
+      <c r="F3" s="7" t="str">
+        <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>HKD_YC6MRH_OND#0001</v>
       </c>
       <c r="G3" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -3632,15 +2505,15 @@
         <v>25</v>
       </c>
       <c r="C4" s="33" t="str">
-        <f t="shared" ref="C4:C12" si="1">PROPER(Currency)&amp;FamilyName&amp;$B4</f>
-        <v>HkdLiborSW</v>
+        <f t="shared" ref="C4:C12" si="2">PROPER(Currency)&amp;FamilyName&amp;$B4</f>
+        <v>HkdHiborSW</v>
       </c>
       <c r="D4" s="32" t="str">
-        <f t="shared" ref="D4:D12" si="2">Currency&amp;B4&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
+        <f t="shared" ref="D4:D12" si="3">Currency&amp;B4&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
         <v>HKDSWD_SYNTH6M_Quote</v>
       </c>
       <c r="E4" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HKD_YC6MRH_SWD</v>
       </c>
       <c r="F4" s="7" t="str">
@@ -3659,15 +2532,15 @@
         <v>1</v>
       </c>
       <c r="C5" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor2W</v>
+        <f t="shared" si="2"/>
+        <v>HkdHibor2W</v>
       </c>
       <c r="D5" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HKD2WD_SYNTH6M_Quote</v>
       </c>
       <c r="E5" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HKD_YC6MRH_2WD</v>
       </c>
       <c r="F5" s="7" t="str">
@@ -3686,15 +2559,15 @@
         <v>2</v>
       </c>
       <c r="C6" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor3W</v>
+        <f t="shared" si="2"/>
+        <v>HkdHibor3W</v>
       </c>
       <c r="D6" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HKD3WD_SYNTH6M_Quote</v>
       </c>
       <c r="E6" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HKD_YC6MRH_3WD</v>
       </c>
       <c r="F6" s="7" t="str">
@@ -3713,15 +2586,15 @@
         <v>3</v>
       </c>
       <c r="C7" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor1M</v>
+        <f t="shared" si="2"/>
+        <v>HkdHibor1M</v>
       </c>
       <c r="D7" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HKD1MD_SYNTH6M_Quote</v>
       </c>
       <c r="E7" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HKD_YC6MRH_1MD</v>
       </c>
       <c r="F7" s="7" t="str">
@@ -3740,15 +2613,15 @@
         <v>4</v>
       </c>
       <c r="C8" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor2M</v>
+        <f t="shared" si="2"/>
+        <v>HkdHibor2M</v>
       </c>
       <c r="D8" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HKD2MD_SYNTH6M_Quote</v>
       </c>
       <c r="E8" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HKD_YC6MRH_2MD</v>
       </c>
       <c r="F8" s="7" t="str">
@@ -3767,15 +2640,15 @@
         <v>5</v>
       </c>
       <c r="C9" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor3M</v>
+        <f t="shared" si="2"/>
+        <v>HkdHibor3M</v>
       </c>
       <c r="D9" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HKD3MD_SYNTH6M_Quote</v>
       </c>
       <c r="E9" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HKD_YC6MRH_3MD</v>
       </c>
       <c r="F9" s="7" t="str">
@@ -3794,15 +2667,15 @@
         <v>6</v>
       </c>
       <c r="C10" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor4M</v>
+        <f t="shared" si="2"/>
+        <v>HkdHibor4M</v>
       </c>
       <c r="D10" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HKD4MD_SYNTH6M_Quote</v>
       </c>
       <c r="E10" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HKD_YC6MRH_4MD</v>
       </c>
       <c r="F10" s="7" t="str">
@@ -3821,15 +2694,15 @@
         <v>7</v>
       </c>
       <c r="C11" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor5M</v>
+        <f t="shared" si="2"/>
+        <v>HkdHibor5M</v>
       </c>
       <c r="D11" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HKD5MD_SYNTH6M_Quote</v>
       </c>
       <c r="E11" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HKD_YC6MRH_5MD</v>
       </c>
       <c r="F11" s="7" t="str">
@@ -3848,15 +2721,15 @@
         <v>8</v>
       </c>
       <c r="C12" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor6M</v>
+        <f t="shared" si="2"/>
+        <v>HkdHibor6M</v>
       </c>
       <c r="D12" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HKD6MD_SYNTH6M_Quote</v>
       </c>
       <c r="E12" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HKD_YC6MRH_6MD</v>
       </c>
       <c r="F12" s="7" t="str">
@@ -3948,21 +2821,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="72"/>
+      <c r="B3" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="61" t="str">
+        <f t="shared" ref="C3" si="0">PROPER(Currency)&amp;FamilyName&amp;$B3</f>
+        <v>HkdHiborON</v>
+      </c>
       <c r="D3" s="32" t="str">
         <f>Currency&amp;B3&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
-        <v>HKDSND_SYNTH1Y_Quote</v>
+        <v>HKDOND_SYNTH1Y_Quote</v>
       </c>
       <c r="E3" s="15" t="str">
-        <f t="shared" ref="E3:E18" si="0">$E$1&amp;"_"&amp;$B3&amp;"D"</f>
-        <v>HKD_YC1YRH_SND</v>
-      </c>
-      <c r="F3" s="73" t="str">
-        <f>_xll.qlDepositRateHelper2(E3,D3,"1d",2,"target","following",FALSE,"act/360",Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_SND#0001</v>
+        <f t="shared" ref="E3:E18" si="1">$E$1&amp;"_"&amp;$B3&amp;"D"</f>
+        <v>HKD_YC1YRH_OND</v>
+      </c>
+      <c r="F3" s="7" t="str">
+        <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>HKD_YC1YRH_OND#0001</v>
       </c>
       <c r="G3" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -3976,15 +2852,15 @@
         <v>25</v>
       </c>
       <c r="C4" s="33" t="str">
-        <f t="shared" ref="C4:C18" si="1">PROPER(Currency)&amp;FamilyName&amp;$B4</f>
-        <v>HkdLiborSW</v>
+        <f t="shared" ref="C4:C18" si="2">PROPER(Currency)&amp;FamilyName&amp;$B4</f>
+        <v>HkdHiborSW</v>
       </c>
       <c r="D4" s="32" t="str">
-        <f t="shared" ref="D4:D18" si="2">Currency&amp;B4&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
+        <f t="shared" ref="D4:D18" si="3">Currency&amp;B4&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
         <v>HKDSWD_SYNTH1Y_Quote</v>
       </c>
       <c r="E4" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HKD_YC1YRH_SWD</v>
       </c>
       <c r="F4" s="7" t="str">
@@ -4003,15 +2879,15 @@
         <v>1</v>
       </c>
       <c r="C5" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor2W</v>
+        <f t="shared" si="2"/>
+        <v>HkdHibor2W</v>
       </c>
       <c r="D5" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HKD2WD_SYNTH1Y_Quote</v>
       </c>
       <c r="E5" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HKD_YC1YRH_2WD</v>
       </c>
       <c r="F5" s="7" t="str">
@@ -4030,15 +2906,15 @@
         <v>2</v>
       </c>
       <c r="C6" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor3W</v>
+        <f t="shared" si="2"/>
+        <v>HkdHibor3W</v>
       </c>
       <c r="D6" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HKD3WD_SYNTH1Y_Quote</v>
       </c>
       <c r="E6" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HKD_YC1YRH_3WD</v>
       </c>
       <c r="F6" s="7" t="str">
@@ -4057,15 +2933,15 @@
         <v>3</v>
       </c>
       <c r="C7" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor1M</v>
+        <f t="shared" si="2"/>
+        <v>HkdHibor1M</v>
       </c>
       <c r="D7" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HKD1MD_SYNTH1Y_Quote</v>
       </c>
       <c r="E7" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HKD_YC1YRH_1MD</v>
       </c>
       <c r="F7" s="7" t="str">
@@ -4084,15 +2960,15 @@
         <v>4</v>
       </c>
       <c r="C8" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor2M</v>
+        <f t="shared" si="2"/>
+        <v>HkdHibor2M</v>
       </c>
       <c r="D8" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HKD2MD_SYNTH1Y_Quote</v>
       </c>
       <c r="E8" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HKD_YC1YRH_2MD</v>
       </c>
       <c r="F8" s="7" t="str">
@@ -4111,15 +2987,15 @@
         <v>5</v>
       </c>
       <c r="C9" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor3M</v>
+        <f t="shared" si="2"/>
+        <v>HkdHibor3M</v>
       </c>
       <c r="D9" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HKD3MD_SYNTH1Y_Quote</v>
       </c>
       <c r="E9" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HKD_YC1YRH_3MD</v>
       </c>
       <c r="F9" s="7" t="str">
@@ -4138,15 +3014,15 @@
         <v>6</v>
       </c>
       <c r="C10" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor4M</v>
+        <f t="shared" si="2"/>
+        <v>HkdHibor4M</v>
       </c>
       <c r="D10" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HKD4MD_SYNTH1Y_Quote</v>
       </c>
       <c r="E10" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HKD_YC1YRH_4MD</v>
       </c>
       <c r="F10" s="7" t="str">
@@ -4165,15 +3041,15 @@
         <v>7</v>
       </c>
       <c r="C11" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor5M</v>
+        <f t="shared" si="2"/>
+        <v>HkdHibor5M</v>
       </c>
       <c r="D11" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HKD5MD_SYNTH1Y_Quote</v>
       </c>
       <c r="E11" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HKD_YC1YRH_5MD</v>
       </c>
       <c r="F11" s="7" t="str">
@@ -4192,15 +3068,15 @@
         <v>8</v>
       </c>
       <c r="C12" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor6M</v>
+        <f t="shared" si="2"/>
+        <v>HkdHibor6M</v>
       </c>
       <c r="D12" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HKD6MD_SYNTH1Y_Quote</v>
       </c>
       <c r="E12" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HKD_YC1YRH_6MD</v>
       </c>
       <c r="F12" s="7" t="str">
@@ -4219,15 +3095,15 @@
         <v>27</v>
       </c>
       <c r="C13" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor7M</v>
+        <f t="shared" si="2"/>
+        <v>HkdHibor7M</v>
       </c>
       <c r="D13" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HKD7MD_SYNTH1Y_Quote</v>
       </c>
       <c r="E13" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HKD_YC1YRH_7MD</v>
       </c>
       <c r="F13" s="7" t="str">
@@ -4246,15 +3122,15 @@
         <v>28</v>
       </c>
       <c r="C14" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor8M</v>
+        <f t="shared" si="2"/>
+        <v>HkdHibor8M</v>
       </c>
       <c r="D14" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HKD8MD_SYNTH1Y_Quote</v>
       </c>
       <c r="E14" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HKD_YC1YRH_8MD</v>
       </c>
       <c r="F14" s="7" t="str">
@@ -4273,15 +3149,15 @@
         <v>9</v>
       </c>
       <c r="C15" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor9M</v>
+        <f t="shared" si="2"/>
+        <v>HkdHibor9M</v>
       </c>
       <c r="D15" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HKD9MD_SYNTH1Y_Quote</v>
       </c>
       <c r="E15" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HKD_YC1YRH_9MD</v>
       </c>
       <c r="F15" s="7" t="str">
@@ -4300,15 +3176,15 @@
         <v>29</v>
       </c>
       <c r="C16" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor10M</v>
+        <f t="shared" si="2"/>
+        <v>HkdHibor10M</v>
       </c>
       <c r="D16" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HKD10MD_SYNTH1Y_Quote</v>
       </c>
       <c r="E16" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HKD_YC1YRH_10MD</v>
       </c>
       <c r="F16" s="7" t="str">
@@ -4327,15 +3203,15 @@
         <v>30</v>
       </c>
       <c r="C17" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor11M</v>
+        <f t="shared" si="2"/>
+        <v>HkdHibor11M</v>
       </c>
       <c r="D17" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HKD11MD_SYNTH1Y_Quote</v>
       </c>
       <c r="E17" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HKD_YC1YRH_11MD</v>
       </c>
       <c r="F17" s="7" t="str">
@@ -4354,15 +3230,15 @@
         <v>10</v>
       </c>
       <c r="C18" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HkdLibor1Y</v>
+        <f t="shared" si="2"/>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="D18" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HKD1YD_SYNTH1Y_Quote</v>
       </c>
       <c r="E18" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HKD_YC1YRH_1YD</v>
       </c>
       <c r="F18" s="7" t="str">
@@ -4391,214 +3267,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3" style="40" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" style="40" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="40" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="40"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="42" t="str">
-        <f>Currency&amp;"_YC"&amp;$D$1&amp;C1&amp;"RH"</f>
-        <v>HKD_YC1M-MxRH</v>
-      </c>
-      <c r="H1" s="16"/>
-    </row>
-    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="37" t="str">
-        <f>$E$1&amp;"_Deposits.xml"</f>
-        <v>HKD_YC1M-MxRH_Deposits.xml</v>
-      </c>
-      <c r="F2" s="38">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F7,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>5</v>
-      </c>
-      <c r="G2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
-      </c>
-      <c r="H2" s="16"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="32" t="str">
-        <f>Currency&amp;B3&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
-        <v>HKDSND_SYNTH1M_Quote</v>
-      </c>
-      <c r="E3" s="15" t="str">
-        <f>$E$1&amp;"_"&amp;$B3&amp;"D"</f>
-        <v>HKD_YC1M-MxRH_SND</v>
-      </c>
-      <c r="F3" s="73" t="str">
-        <f>_xll.qlDepositRateHelper2(E3,D3,"1d",2,"target","following",FALSE,"act/360",Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_SND#0001</v>
-      </c>
-      <c r="G3" s="35" t="str">
-        <f>_xll.ohRangeRetrieveError(F3)</f>
-        <v/>
-      </c>
-      <c r="H3" s="16"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="33" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$B4</f>
-        <v>HkdLiborSW</v>
-      </c>
-      <c r="D4" s="32" t="str">
-        <f>Currency&amp;B4&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
-        <v>HKDSWD_SYNTH1M_Quote</v>
-      </c>
-      <c r="E4" s="15" t="str">
-        <f>$E$1&amp;"_"&amp;$B4&amp;"D"</f>
-        <v>HKD_YC1M-MxRH_SWD</v>
-      </c>
-      <c r="F4" s="7" t="str">
-        <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_SWD#0001</v>
-      </c>
-      <c r="G4" s="35" t="str">
-        <f>_xll.ohRangeRetrieveError(F4)</f>
-        <v/>
-      </c>
-      <c r="H4" s="16"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="33" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$B5</f>
-        <v>HkdLibor2W</v>
-      </c>
-      <c r="D5" s="32" t="str">
-        <f>Currency&amp;B5&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
-        <v>HKD2WD_SYNTH1M_Quote</v>
-      </c>
-      <c r="E5" s="15" t="str">
-        <f>$E$1&amp;"_"&amp;$B5&amp;"D"</f>
-        <v>HKD_YC1M-MxRH_2WD</v>
-      </c>
-      <c r="F5" s="7" t="str">
-        <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_2WD#0001</v>
-      </c>
-      <c r="G5" s="35" t="str">
-        <f>_xll.ohRangeRetrieveError(F5)</f>
-        <v/>
-      </c>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="33" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$B6</f>
-        <v>HkdLibor3W</v>
-      </c>
-      <c r="D6" s="32" t="str">
-        <f>Currency&amp;B6&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
-        <v>HKD3WD_SYNTH1M_Quote</v>
-      </c>
-      <c r="E6" s="15" t="str">
-        <f>$E$1&amp;"_"&amp;$B6&amp;"D"</f>
-        <v>HKD_YC1M-MxRH_3WD</v>
-      </c>
-      <c r="F6" s="7" t="str">
-        <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_3WD#0001</v>
-      </c>
-      <c r="G6" s="35" t="str">
-        <f>_xll.ohRangeRetrieveError(F6)</f>
-        <v/>
-      </c>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="33" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$B7</f>
-        <v>HkdLibor1M</v>
-      </c>
-      <c r="D7" s="32" t="str">
-        <f>Currency&amp;B7&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
-        <v>HKD1MD_SYNTH1M_Quote</v>
-      </c>
-      <c r="E7" s="15" t="str">
-        <f>$E$1&amp;"_"&amp;$B7&amp;"D"</f>
-        <v>HKD_YC1M-MxRH_1MD</v>
-      </c>
-      <c r="F7" s="7" t="str">
-        <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_1MD#0001</v>
-      </c>
-      <c r="G7" s="35" t="str">
-        <f>_xll.ohRangeRetrieveError(F7)</f>
-        <v/>
-      </c>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>
--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_Deposits.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_Deposits.xlsx
@@ -16,9 +16,6 @@
     <sheet name="6M" sheetId="23" r:id="rId7"/>
     <sheet name="1Y" sheetId="24" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <definedNames>
     <definedName name="BondBasisDayCounter">'General Settings'!#REF!</definedName>
     <definedName name="Calendar">'General Settings'!#REF!</definedName>
@@ -725,22 +722,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1049,7 +1030,7 @@
     <row r="1" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="12" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1117,8 +1098,8 @@
         <v>18</v>
       </c>
       <c r="D8" s="29" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\Risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
+        <f>qlSerializationPath(Trigger)</f>
+        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
       </c>
       <c r="E8" s="19"/>
     </row>
@@ -1267,13 +1248,13 @@
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>HKD_YCSTDRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="55">
+      <c r="F2" s="55" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F18,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>16</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="56" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YCSTDRH_Deposits.xml</v>
       </c>
       <c r="H2" s="50"/>
     </row>
@@ -1777,13 +1758,13 @@
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>HKD_YCRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>1</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YCRH_Deposits.xml</v>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -1881,13 +1862,13 @@
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>HKD_YCONRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>1</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YCONRH_Deposits.xml</v>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -1984,13 +1965,13 @@
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>HKD_YC1MRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F7,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>5</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YC1MRH_Deposits.xml</v>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -2196,13 +2177,13 @@
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>HKD_YC3MRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F9,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>7</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YC3MRH_Deposits.xml</v>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -2462,13 +2443,13 @@
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>HKD_YC6MRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F12,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>10</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YC6MRH_Deposits.xml</v>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -2809,13 +2790,13 @@
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>HKD_YC1YRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F18,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>16</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YC1YRH_Deposits.xml</v>
       </c>
       <c r="H2" s="16"/>
     </row>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_Deposits.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_Deposits.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
   <si>
     <t>Currency</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Hibor</t>
+  </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1097,9 +1100,8 @@
       <c r="C8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="29" t="str">
-        <f>qlSerializationPath(Trigger)</f>
-        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
+      <c r="D8" s="29" t="s">
+        <v>34</v>
       </c>
       <c r="E8" s="19"/>
     </row>
@@ -1254,7 +1256,7 @@
       </c>
       <c r="G2" s="56" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YCSTDRH_Deposits.xml</v>
+        <v/>
       </c>
       <c r="H2" s="50"/>
     </row>
@@ -1764,7 +1766,7 @@
       </c>
       <c r="G2" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YCRH_Deposits.xml</v>
+        <v/>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -1868,7 +1870,7 @@
       </c>
       <c r="G2" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YCONRH_Deposits.xml</v>
+        <v/>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -1971,7 +1973,7 @@
       </c>
       <c r="G2" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YC1MRH_Deposits.xml</v>
+        <v/>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -2183,7 +2185,7 @@
       </c>
       <c r="G2" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YC3MRH_Deposits.xml</v>
+        <v/>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -2449,7 +2451,7 @@
       </c>
       <c r="G2" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YC6MRH_Deposits.xml</v>
+        <v/>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -2796,7 +2798,7 @@
       </c>
       <c r="G2" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YC1YRH_Deposits.xml</v>
+        <v/>
       </c>
       <c r="H2" s="16"/>
     </row>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_Deposits.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_Deposits.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="34">
   <si>
     <t>Currency</t>
   </si>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>Hibor</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1100,8 +1097,9 @@
       <c r="C8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>34</v>
+      <c r="D8" s="29" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
       </c>
       <c r="E8" s="19"/>
     </row>
@@ -1251,12 +1249,12 @@
         <v>HKD_YCSTDRH_Deposits.xml</v>
       </c>
       <c r="F2" s="55" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F18,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="56" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F18,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="56" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="50"/>
     </row>
@@ -1761,12 +1759,12 @@
         <v>HKD_YCRH_Deposits.xml</v>
       </c>
       <c r="F2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -1865,12 +1863,12 @@
         <v>HKD_YCONRH_Deposits.xml</v>
       </c>
       <c r="F2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -1968,12 +1966,12 @@
         <v>HKD_YC1MRH_Deposits.xml</v>
       </c>
       <c r="F2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F7,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F7,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -2180,12 +2178,12 @@
         <v>HKD_YC3MRH_Deposits.xml</v>
       </c>
       <c r="F2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F9,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F9,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -2446,12 +2444,12 @@
         <v>HKD_YC6MRH_Deposits.xml</v>
       </c>
       <c r="F2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F12,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F12,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -2793,12 +2791,12 @@
         <v>HKD_YC1YRH_Deposits.xml</v>
       </c>
       <c r="F2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F18,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F18,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="16"/>
     </row>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_Deposits.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_Deposits.xlsx
@@ -1030,7 +1030,7 @@
     <row r="1" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="12" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Nov  6 2013 01:01:46</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="D8" s="29" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
+        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
       </c>
       <c r="E8" s="19"/>
     </row>
@@ -1248,13 +1248,13 @@
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>HKD_YCSTDRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="55" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F18,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G2" s="56" t="e">
+      <c r="F2" s="55">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F18,SerializationPath&amp;E2,FileOverwrite,,Serialize),"---")</f>
+        <v>16</v>
+      </c>
+      <c r="G2" s="56" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H2" s="50"/>
     </row>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="F3" s="59" t="str">
         <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_OND#0001</v>
+        <v>HKD_YCSTDRH_OND#0002</v>
       </c>
       <c r="G3" s="62" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="F4" s="59" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_SWD#0001</v>
+        <v>HKD_YCSTDRH_SWD#0002</v>
       </c>
       <c r="G4" s="62" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="F5" s="59" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_2WD#0001</v>
+        <v>HKD_YCSTDRH_2WD#0002</v>
       </c>
       <c r="G5" s="62" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="F6" s="59" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_3WD#0001</v>
+        <v>HKD_YCSTDRH_3WD#0002</v>
       </c>
       <c r="G6" s="62" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="F7" s="59" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_1MD#0001</v>
+        <v>HKD_YCSTDRH_1MD#0002</v>
       </c>
       <c r="G7" s="62" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="F8" s="59" t="str">
         <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_2MD#0001</v>
+        <v>HKD_YCSTDRH_2MD#0002</v>
       </c>
       <c r="G8" s="62" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F9" s="59" t="str">
         <f>_xll.qlDepositRateHelper(E9,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_3MD#0001</v>
+        <v>HKD_YCSTDRH_3MD#0002</v>
       </c>
       <c r="G9" s="62" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="F10" s="59" t="str">
         <f>_xll.qlDepositRateHelper(E10,D10,C10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_4MD#0001</v>
+        <v>HKD_YCSTDRH_4MD#0002</v>
       </c>
       <c r="G10" s="62" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="F11" s="59" t="str">
         <f>_xll.qlDepositRateHelper(E11,D11,C11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_5MD#0001</v>
+        <v>HKD_YCSTDRH_5MD#0002</v>
       </c>
       <c r="G11" s="62" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="F12" s="59" t="str">
         <f>_xll.qlDepositRateHelper(E12,D12,C12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_6MD#0001</v>
+        <v>HKD_YCSTDRH_6MD#0002</v>
       </c>
       <c r="G12" s="62" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="F13" s="59" t="str">
         <f>_xll.qlDepositRateHelper(E13,D13,C13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_7MD#0001</v>
+        <v>HKD_YCSTDRH_7MD#0002</v>
       </c>
       <c r="G13" s="62" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="F14" s="59" t="str">
         <f>_xll.qlDepositRateHelper(E14,D14,C14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_8MD#0001</v>
+        <v>HKD_YCSTDRH_8MD#0002</v>
       </c>
       <c r="G14" s="62" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="F15" s="59" t="str">
         <f>_xll.qlDepositRateHelper(E15,D15,C15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_9MD#0001</v>
+        <v>HKD_YCSTDRH_9MD#0002</v>
       </c>
       <c r="G15" s="62" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="F16" s="59" t="str">
         <f>_xll.qlDepositRateHelper(E16,D16,C16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_10MD#0001</v>
+        <v>HKD_YCSTDRH_10MD#0002</v>
       </c>
       <c r="G16" s="62" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="F17" s="59" t="str">
         <f>_xll.qlDepositRateHelper(E17,D17,C17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_11MD#0001</v>
+        <v>HKD_YCSTDRH_11MD#0002</v>
       </c>
       <c r="G17" s="62" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="F18" s="59" t="str">
         <f>_xll.qlDepositRateHelper(E18,D18,C18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_1YD#0001</v>
+        <v>HKD_YCSTDRH_1YD#0002</v>
       </c>
       <c r="G18" s="62" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -1758,13 +1758,13 @@
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>HKD_YCRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="38" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G2" s="39" t="e">
+      <c r="F2" s="38">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3,SerializationPath&amp;E2,FileOverwrite,,Serialize),"---")</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="F3" s="44" t="str">
         <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OND#0001</v>
+        <v>HKD_YCRH_OND#0002</v>
       </c>
       <c r="G3" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -1862,13 +1862,13 @@
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>HKD_YCONRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="38" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G2" s="39" t="e">
+      <c r="F2" s="38">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3,SerializationPath&amp;E2,FileOverwrite,,Serialize),"---")</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="F3" s="44" t="str">
         <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OND#0001</v>
+        <v>HKD_YCONRH_OND#0002</v>
       </c>
       <c r="G3" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -1965,13 +1965,13 @@
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>HKD_YC1MRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="38" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F7,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G2" s="39" t="e">
+      <c r="F2" s="38">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F7,SerializationPath&amp;E2,FileOverwrite,,Serialize),"---")</f>
+        <v>5</v>
+      </c>
+      <c r="G2" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="F3" s="7" t="str">
         <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_OND#0001</v>
+        <v>HKD_YC1MRH_OND#0002</v>
       </c>
       <c r="G3" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="F4" s="7" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_SWD#0001</v>
+        <v>HKD_YC1MRH_SWD#0002</v>
       </c>
       <c r="G4" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="F5" s="7" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_2WD#0001</v>
+        <v>HKD_YC1MRH_2WD#0002</v>
       </c>
       <c r="G5" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="F6" s="7" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_3WD#0001</v>
+        <v>HKD_YC1MRH_3WD#0002</v>
       </c>
       <c r="G6" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="F7" s="7" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_1MD#0001</v>
+        <v>HKD_YC1MRH_1MD#0002</v>
       </c>
       <c r="G7" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -2177,13 +2177,13 @@
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>HKD_YC3MRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="38" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F9,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G2" s="39" t="e">
+      <c r="F2" s="38">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F9,SerializationPath&amp;E2,FileOverwrite,,Serialize),"---")</f>
+        <v>7</v>
+      </c>
+      <c r="G2" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="F3" s="7" t="str">
         <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_OND#0001</v>
+        <v>HKD_YC3MRH_OND#0002</v>
       </c>
       <c r="G3" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="F4" s="7" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_SWD#0001</v>
+        <v>HKD_YC3MRH_SWD#0002</v>
       </c>
       <c r="G4" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="F5" s="7" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_2WD#0001</v>
+        <v>HKD_YC3MRH_2WD#0002</v>
       </c>
       <c r="G5" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="F6" s="7" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_3WD#0001</v>
+        <v>HKD_YC3MRH_3WD#0002</v>
       </c>
       <c r="G6" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="F7" s="7" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_1MD#0001</v>
+        <v>HKD_YC3MRH_1MD#0002</v>
       </c>
       <c r="G7" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="F8" s="7" t="str">
         <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_2MD#0001</v>
+        <v>HKD_YC3MRH_2MD#0002</v>
       </c>
       <c r="G8" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="F9" s="7" t="str">
         <f>_xll.qlDepositRateHelper(E9,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_3MD#0001</v>
+        <v>HKD_YC3MRH_3MD#0002</v>
       </c>
       <c r="G9" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -2443,13 +2443,13 @@
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>HKD_YC6MRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="38" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F12,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G2" s="39" t="e">
+      <c r="F2" s="38">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F12,SerializationPath&amp;E2,FileOverwrite,,Serialize),"---")</f>
+        <v>10</v>
+      </c>
+      <c r="G2" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="F3" s="7" t="str">
         <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_OND#0001</v>
+        <v>HKD_YC6MRH_OND#0002</v>
       </c>
       <c r="G3" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="F4" s="7" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SWD#0001</v>
+        <v>HKD_YC6MRH_SWD#0002</v>
       </c>
       <c r="G4" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="F5" s="7" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_2WD#0001</v>
+        <v>HKD_YC6MRH_2WD#0002</v>
       </c>
       <c r="G5" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="F6" s="7" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_3WD#0001</v>
+        <v>HKD_YC6MRH_3WD#0002</v>
       </c>
       <c r="G6" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="F7" s="7" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_1MD#0001</v>
+        <v>HKD_YC6MRH_1MD#0002</v>
       </c>
       <c r="G7" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="F8" s="7" t="str">
         <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_2MD#0001</v>
+        <v>HKD_YC6MRH_2MD#0002</v>
       </c>
       <c r="G8" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="F9" s="7" t="str">
         <f>_xll.qlDepositRateHelper(E9,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_3MD#0001</v>
+        <v>HKD_YC6MRH_3MD#0002</v>
       </c>
       <c r="G9" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="F10" s="7" t="str">
         <f>_xll.qlDepositRateHelper(E10,D10,C10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_4MD#0001</v>
+        <v>HKD_YC6MRH_4MD#0002</v>
       </c>
       <c r="G10" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="F11" s="7" t="str">
         <f>_xll.qlDepositRateHelper(E11,D11,C11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_5MD#0001</v>
+        <v>HKD_YC6MRH_5MD#0002</v>
       </c>
       <c r="G11" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -2715,7 +2715,7 @@
       </c>
       <c r="F12" s="7" t="str">
         <f>_xll.qlDepositRateHelper(E12,D12,C12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_6MD#0001</v>
+        <v>HKD_YC6MRH_6MD#0002</v>
       </c>
       <c r="G12" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -2790,13 +2790,13 @@
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>HKD_YC1YRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="38" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F18,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G2" s="39" t="e">
+      <c r="F2" s="38">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F18,SerializationPath&amp;E2,FileOverwrite,,Serialize),"---")</f>
+        <v>16</v>
+      </c>
+      <c r="G2" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -2819,7 +2819,7 @@
       </c>
       <c r="F3" s="7" t="str">
         <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_OND#0001</v>
+        <v>HKD_YC1YRH_OND#0002</v>
       </c>
       <c r="G3" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="F4" s="7" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_SWD#0001</v>
+        <v>HKD_YC1YRH_SWD#0002</v>
       </c>
       <c r="G4" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F5" s="7" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_2WD#0001</v>
+        <v>HKD_YC1YRH_2WD#0002</v>
       </c>
       <c r="G5" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="F6" s="7" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_3WD#0001</v>
+        <v>HKD_YC1YRH_3WD#0002</v>
       </c>
       <c r="G6" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="F7" s="7" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_1MD#0001</v>
+        <v>HKD_YC1YRH_1MD#0002</v>
       </c>
       <c r="G7" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="F8" s="7" t="str">
         <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_2MD#0001</v>
+        <v>HKD_YC1YRH_2MD#0002</v>
       </c>
       <c r="G8" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -2981,7 +2981,7 @@
       </c>
       <c r="F9" s="7" t="str">
         <f>_xll.qlDepositRateHelper(E9,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_3MD#0001</v>
+        <v>HKD_YC1YRH_3MD#0002</v>
       </c>
       <c r="G9" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="F10" s="7" t="str">
         <f>_xll.qlDepositRateHelper(E10,D10,C10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_4MD#0001</v>
+        <v>HKD_YC1YRH_4MD#0002</v>
       </c>
       <c r="G10" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="F11" s="7" t="str">
         <f>_xll.qlDepositRateHelper(E11,D11,C11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_5MD#0001</v>
+        <v>HKD_YC1YRH_5MD#0002</v>
       </c>
       <c r="G11" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="F12" s="7" t="str">
         <f>_xll.qlDepositRateHelper(E12,D12,C12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_6MD#0001</v>
+        <v>HKD_YC1YRH_6MD#0002</v>
       </c>
       <c r="G12" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="F13" s="7" t="str">
         <f>_xll.qlDepositRateHelper(E13,D13,C13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_7MD#0001</v>
+        <v>HKD_YC1YRH_7MD#0002</v>
       </c>
       <c r="G13" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="F14" s="7" t="str">
         <f>_xll.qlDepositRateHelper(E14,D14,C14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_8MD#0001</v>
+        <v>HKD_YC1YRH_8MD#0002</v>
       </c>
       <c r="G14" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -3143,7 +3143,7 @@
       </c>
       <c r="F15" s="7" t="str">
         <f>_xll.qlDepositRateHelper(E15,D15,C15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_9MD#0001</v>
+        <v>HKD_YC1YRH_9MD#0002</v>
       </c>
       <c r="G15" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -3170,7 +3170,7 @@
       </c>
       <c r="F16" s="7" t="str">
         <f>_xll.qlDepositRateHelper(E16,D16,C16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_10MD#0001</v>
+        <v>HKD_YC1YRH_10MD#0002</v>
       </c>
       <c r="G16" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="F17" s="7" t="str">
         <f>_xll.qlDepositRateHelper(E17,D17,C17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_11MD#0001</v>
+        <v>HKD_YC1YRH_11MD#0002</v>
       </c>
       <c r="G17" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="F18" s="7" t="str">
         <f>_xll.qlDepositRateHelper(E18,D18,C18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_1YD#0001</v>
+        <v>HKD_YC1YRH_1YD#0002</v>
       </c>
       <c r="G18" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
